--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466912.8425666472</v>
+        <v>456731.9746827679</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>12908190.36482257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>3555535.184291202</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7085445.347329007</v>
+        <v>7514933.463098124</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179.4376746584939</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>78.31733827330022</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.31517967031814</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>99.67573045873482</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>203.2807617256911</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1057,10 +1059,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2635869532361</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>352.2426925203172</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>58.67748875058555</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>70.13438451350515</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.8764542074653</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>24.12958620662205</v>
+        <v>58.67748875058555</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1853,16 +1855,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>71.94762989914915</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>111.9367515268851</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2239,13 +2241,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429501</v>
+        <v>57.29215110549318</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2615,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.4755279372322</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.04375511693071</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2953,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>124.2290557831222</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3080,7 +3082,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.4038028388107</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>60.1546697496713</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>180.0196592840953</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.7757544134943</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>9.16066297138115</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>116.9342260428336</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4150,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>114.5820141327264</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2043.661076039655</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="C2" t="n">
-        <v>1616.760346052955</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.467725237955</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E2" t="n">
-        <v>767.4907853858125</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F2" t="n">
         <v>342.3666035752127</v>
@@ -4328,28 +4330,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>1100.603903091852</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.26943807629</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.26943807629</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1646.496266633258</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1250.104916933605</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462376</v>
+        <v>1170.996494435322</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.911252462376</v>
+        <v>765.6592243902124</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437774</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437774</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437774</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924752</v>
+        <v>659.4347056307204</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336854</v>
+        <v>659.4347056307204</v>
       </c>
       <c r="N3" t="n">
-        <v>838.37484378254</v>
+        <v>659.4347056307204</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1210.100240615158</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1760.765775599596</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.1818057320246</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C4" t="n">
-        <v>626.1818057320246</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924752</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2118.947862113333</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754298</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212348</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y4" t="n">
-        <v>626.1818057320246</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.391515372512</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="C5" t="n">
-        <v>767.4907853858125</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D5" t="n">
-        <v>767.4907853858125</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E5" t="n">
-        <v>767.4907853858125</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
         <v>1123.5801824935</v>
@@ -4580,37 +4582,37 @@
         <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2124.228696443452</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2124.228696443452</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2124.228696443452</v>
       </c>
       <c r="W5" t="n">
-        <v>2019.577149709152</v>
+        <v>1727.837346743799</v>
       </c>
       <c r="X5" t="n">
-        <v>2019.577149709152</v>
+        <v>1727.837346743799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1614.239879664043</v>
+        <v>1322.50007669869</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4628,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336854</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.9957668907073</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>374.0232037696233</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>210.706430896394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2041.81672018638</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1761.632271686684</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1479.920804294713</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1205.068400467226</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>962.5045039130309</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>736.161735602773</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1805.062888170846</v>
+        <v>839.5348582317996</v>
       </c>
       <c r="C8" t="n">
-        <v>1378.162158184147</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D8" t="n">
-        <v>954.8695373691469</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E8" t="n">
-        <v>528.8925975170044</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F8" t="n">
-        <v>103.7684157064047</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,7 +4807,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
         <v>595.1637600336857</v>
@@ -4814,40 +4816,40 @@
         <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.911252462377</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2224.911252462377</v>
+        <v>839.5348582317996</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4883,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M9" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4984,22 +4986,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1764.398243894584</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
         <v>1544.188084595808</v>
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D11" t="n">
         <v>895.5993467119897</v>
@@ -5039,25 +5041,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N11" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q11" t="n">
         <v>2107.354917580474</v>
@@ -5081,10 +5083,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.64106180522</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.64106180522</v>
+        <v>1742.34844099022</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>119.1699405917395</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K12" t="n">
-        <v>119.1699405917395</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L12" t="n">
-        <v>119.1699405917395</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M12" t="n">
-        <v>669.8354755761777</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N12" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O12" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
@@ -5233,16 +5235,16 @@
         <v>2177.872639149549</v>
       </c>
       <c r="V13" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W13" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X13" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5269,37 @@
         <v>103.7684157064047</v>
       </c>
       <c r="G14" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K14" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L14" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M14" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N14" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
         <v>2224.911252462377</v>
@@ -5352,22 +5354,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M15" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O15" t="n">
         <v>1853.185855629757</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
         <v>44.49822504924753</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1393.342889338594</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>966.4421593518939</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>543.1495385368942</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>117.1725986847517</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336857</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002562</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630124</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.191253630124</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.3471129133217</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C18" t="n">
-        <v>865.8412094308264</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D18" t="n">
-        <v>762.0012509461114</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E18" t="n">
-        <v>657.2993172190487</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F18" t="n">
-        <v>563.6534869019529</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G18" t="n">
-        <v>469.5997151195569</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H18" t="n">
-        <v>416.2236218818665</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I18" t="n">
-        <v>416.2236218818665</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J18" t="n">
-        <v>416.2236218818665</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K18" t="n">
-        <v>416.2236218818665</v>
+        <v>3342.951415276884</v>
       </c>
       <c r="L18" t="n">
-        <v>572.914647509062</v>
+        <v>3342.951415276884</v>
       </c>
       <c r="M18" t="n">
-        <v>1123.5801824935</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="N18" t="n">
-        <v>1674.245717477938</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="O18" t="n">
-        <v>2224.911252462377</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P18" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q18" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R18" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S18" t="n">
-        <v>2143.587005023631</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T18" t="n">
-        <v>2001.707069321309</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U18" t="n">
-        <v>1816.938873240946</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.965734380212</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W18" t="n">
-        <v>1415.444357213429</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X18" t="n">
-        <v>1251.967010980092</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y18" t="n">
-        <v>1112.274122333384</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.5956631384639</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>733.5956631384639</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>620.5282373537315</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>454.3200315065851</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.502328002917</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.502328002917</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9384314487219</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.5956631384639</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
@@ -5753,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5792,10 +5794,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5828,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5887,10 +5889,10 @@
         <v>3158.801708427964</v>
       </c>
       <c r="C22" t="n">
-        <v>2986.82914530688</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>3100.930848725445</v>
       </c>
       <c r="E22" t="n">
         <v>2934.722642878299</v>
@@ -5999,16 +6001,16 @@
         <v>2398.817321261059</v>
       </c>
       <c r="N23" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686964</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="26">
@@ -6239,28 +6241,28 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
         <v>3777.607131232208</v>
@@ -6306,25 +6308,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2210.954372013976</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>2210.954372013976</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>2210.954372013976</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.965660114159</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.113256286672</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X28" t="n">
-        <v>1436.549359732477</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.206591422219</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6470,16 +6472,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6543,19 +6545,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3375.975369221655</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C31" t="n">
-        <v>3204.002806100571</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D31" t="n">
-        <v>3078.518911370144</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E31" t="n">
-        <v>3078.518911370144</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F31" t="n">
-        <v>3078.518911370144</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G31" t="n">
-        <v>3078.518911370144</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H31" t="n">
         <v>2934.722642878299</v>
@@ -6643,28 +6645,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517327</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>4591.611874017632</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>4309.90040662566</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W31" t="n">
-        <v>4035.048002798173</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X31" t="n">
-        <v>3792.484106243979</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y31" t="n">
-        <v>3566.14133793372</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6728,7 +6730,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6789,7 +6791,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3918.135197142812</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C34" t="n">
-        <v>3746.162634021728</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D34" t="n">
-        <v>3582.845861148498</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.637655301352</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
         <v>2934.722642878299</v>
@@ -6880,28 +6882,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="T34" t="n">
-        <v>4897.962009497735</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="U34" t="n">
-        <v>4617.77756099804</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="V34" t="n">
-        <v>4617.77756099804</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="W34" t="n">
-        <v>4342.925157170553</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X34" t="n">
-        <v>4100.361260616358</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y34" t="n">
-        <v>4100.361260616358</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
         <v>2934.722642878299</v>
@@ -7123,22 +7125,22 @@
         <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>4897.962009497735</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>4897.962009497735</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V37" t="n">
-        <v>4616.250542105764</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W37" t="n">
-        <v>4616.250542105764</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7354,19 +7356,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025265</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W40" t="n">
         <v>1844.556469506584</v>
@@ -7412,22 +7414,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.34920575453</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7436,10 +7438,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M42" t="n">
-        <v>3306.448039710919</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>3509.456675241458</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U43" t="n">
-        <v>2282.715740818957</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V43" t="n">
-        <v>2119.408873334071</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>1437.300927404847</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>1194.737030850652</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>769.2673335619127</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>342.3666035752127</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>342.3666035752127</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3666035752127</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>342.3666035752127</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>407.101683866143</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L44" t="n">
-        <v>957.7672188505812</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M44" t="n">
-        <v>1218.160237973755</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N44" t="n">
-        <v>1218.160237973755</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>1218.160237973755</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958194</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102812</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031587</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>887.3827134031587</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>769.2673335619127</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>874.3078922751886</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>874.3078922751886</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M45" t="n">
-        <v>874.3078922751886</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N45" t="n">
-        <v>874.3078922751886</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>874.3078922751886</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734062</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792433</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736641</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462377</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462377</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462377</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>869.7150043171358</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>182.5915214642096</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>571.0335849150665</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>260.6609864990204</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>267.010789576021</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8216,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>205.7998844961772</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>550.5504466271776</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>179.6167914733347</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>548.8576414812762</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
         <v>593.6590760150259</v>
@@ -8702,13 +8704,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,31 +8768,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>88.51522805109107</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M12" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>182.5915214642101</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L15" t="n">
         <v>578.7428998298237</v>
@@ -9015,10 +9017,10 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N15" t="n">
-        <v>179.6167914733347</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>571.3293238908518</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9237,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>51.74946878692288</v>
       </c>
       <c r="L18" t="n">
-        <v>180.788849974023</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9401,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,16 +9956,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>474.5964003263119</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>427.4810510023246</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>791.8999401147988</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10191,22 +10193,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>227.4584616419597</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10437,10 +10439,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>659.3662058264945</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,7 +11062,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11069,16 +11071,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>625.182225377852</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>677.1461373703553</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4022560221668</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>300.4545145390017</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>458.854857777643</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.2122059901209</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22598,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>329.28546057063</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.7641609568372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,7 +22792,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,7 +22801,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22835,7 +22837,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>119.0405847870784</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22844,7 +22846,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>189.1466744769655</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -22945,10 +22947,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>70.38903016651568</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>341.6181830358603</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>331.1495128311534</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>65.01789851058612</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>376.1660855798238</v>
+        <v>341.6181830358603</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>348.9253100933446</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.74685361761188</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>110.098167740202</v>
+        <v>104.3914540390038</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.7887810877128</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>97.38994188912578</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.45454936137475</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24853,7 +24855,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.860506186134245</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.759898196019833</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110.0981677402018</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>60.11859830455765</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>53.32812537571778</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>214.9186776557742</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>284.349671301825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>125.5562434559265</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465883.526646036</v>
+        <v>465883.5266460361</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465883.5266460362</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772791.8043139899</v>
+        <v>772791.8043139901</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772791.8043139899</v>
+        <v>772791.8043139901</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772791.8043139899</v>
+        <v>772791.8043139901</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465883.5266460361</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
   </sheetData>
@@ -26326,10 +26328,10 @@
         <v>127059.143630737</v>
       </c>
       <c r="G2" t="n">
-        <v>127059.143630737</v>
+        <v>210761.4011765426</v>
       </c>
       <c r="H2" t="n">
-        <v>210761.4011765428</v>
+        <v>210761.4011765427</v>
       </c>
       <c r="I2" t="n">
         <v>210761.4011765427</v>
@@ -26350,10 +26352,10 @@
         <v>210761.4011765427</v>
       </c>
       <c r="O2" t="n">
-        <v>210761.4011765428</v>
+        <v>210761.4011765426</v>
       </c>
       <c r="P2" t="n">
-        <v>127059.143630737</v>
+        <v>210761.4011765426</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>198041.7898901689</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173883.8490937447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="C4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="D4" t="n">
         <v>458.4532502675965</v>
@@ -26427,37 +26429,37 @@
         <v>458.4532502675966</v>
       </c>
       <c r="F4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="G4" t="n">
-        <v>458.4532502675966</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="O4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="P4" t="n">
-        <v>458.4532502675967</v>
+        <v>800.0602599433672</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
@@ -26482,7 +26484,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26509,7 +26511,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127250.2940716958</v>
+        <v>-127250.2940716959</v>
       </c>
       <c r="C6" t="n">
-        <v>59154.43934304133</v>
+        <v>59154.4393430413</v>
       </c>
       <c r="D6" t="n">
         <v>59154.43934304135</v>
@@ -26531,37 +26533,37 @@
         <v>92782.03934304131</v>
       </c>
       <c r="F6" t="n">
-        <v>92782.03934304132</v>
+        <v>92782.03934304131</v>
       </c>
       <c r="G6" t="n">
-        <v>92782.03934304131</v>
+        <v>-65830.51116199933</v>
       </c>
       <c r="H6" t="n">
-        <v>-62740.86125933984</v>
+        <v>132211.2787281696</v>
       </c>
       <c r="I6" t="n">
-        <v>132211.2787281697</v>
+        <v>132211.2787281696</v>
       </c>
       <c r="J6" t="n">
-        <v>-13322.3912066468</v>
+        <v>-13322.39120664683</v>
       </c>
       <c r="K6" t="n">
-        <v>132211.2787281697</v>
+        <v>132211.2787281696</v>
       </c>
       <c r="L6" t="n">
         <v>132211.2787281697</v>
       </c>
       <c r="M6" t="n">
-        <v>132211.2787281696</v>
+        <v>132211.2787281695</v>
       </c>
       <c r="N6" t="n">
         <v>132211.2787281696</v>
       </c>
       <c r="O6" t="n">
-        <v>132211.2787281697</v>
+        <v>-41672.5703655752</v>
       </c>
       <c r="P6" t="n">
-        <v>92782.03934304127</v>
+        <v>132211.2787281696</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26792,7 @@
         <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
@@ -26802,7 +26804,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>533.7539620806205</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>238.1458997847909</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34936,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>167.4878420635542</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
         <v>556.2278131155941</v>
@@ -35422,13 +35424,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,31 +35488,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L15" t="n">
         <v>556.2278131155941</v>
@@ -35735,10 +35737,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N15" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>533.7539620806206</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.35023495358955</v>
       </c>
       <c r="L18" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>452.1971664929786</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>754.4686772153671</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37157,10 +37159,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37789,16 +37791,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>587.9026025434059</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="N42" t="n">
-        <v>205.0592278086251</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>263.0232516395698</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456731.9746827679</v>
+        <v>453409.2089849073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12908190.36482257</v>
+        <v>12908190.36482258</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3555535.184291202</v>
+        <v>3555535.184291204</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>57.83300046414699</v>
       </c>
       <c r="X2" t="n">
-        <v>78.31733827330022</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -822,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -876,7 +876,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>101.8436776486289</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>390.3411791671791</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>99.67573045873482</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1113,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>42.31046081014863</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>352.2426925203172</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>66.72457055527018</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>58.67748875058538</v>
       </c>
       <c r="Y11" t="n">
-        <v>70.13438451350515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>159.0614421165692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>58.67748875058555</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>251.1360211071588</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2241,16 +2241,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>57.29215110549318</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.04375511693071</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3082,7 +3082,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.6737988100367</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.804035614548</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3426,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>60.1546697496713</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>175.6665542587261</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>45.22125567436197</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.16066297138115</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>121.9815308269506</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>114.5820141327264</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>765.6592243902124</v>
+        <v>929.588447107476</v>
       </c>
       <c r="C2" t="n">
-        <v>765.6592243902124</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="E2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="F2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
@@ -4333,25 +4333,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N2" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.496266633258</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.104916933605</v>
+        <v>2166.494080276369</v>
       </c>
       <c r="X2" t="n">
-        <v>1170.996494435322</v>
+        <v>1754.774081444116</v>
       </c>
       <c r="Y2" t="n">
-        <v>765.6592243902124</v>
+        <v>1349.436811399006</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437774</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437774</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="K3" t="n">
-        <v>423.6702648437774</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="L3" t="n">
-        <v>659.4347056307204</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4347056307204</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>659.4347056307204</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O3" t="n">
-        <v>1210.100240615158</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599596</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.7875610435608</v>
+        <v>720.7977379486854</v>
       </c>
       <c r="C4" t="n">
-        <v>207.8149979224768</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924752</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
         <v>44.49822504924752</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2118.947862113333</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1875.608514339233</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U4" t="n">
-        <v>1595.424065839537</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V4" t="n">
-        <v>1313.712598447566</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="W4" t="n">
-        <v>1038.860194620079</v>
+        <v>1256.400004880228</v>
       </c>
       <c r="X4" t="n">
-        <v>796.2962980658845</v>
+        <v>1013.836108326033</v>
       </c>
       <c r="Y4" t="n">
-        <v>569.9535297556265</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1322.50007669869</v>
+        <v>1288.975595211734</v>
       </c>
       <c r="C5" t="n">
-        <v>895.5993467119897</v>
+        <v>862.0748652250343</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>438.7822444100345</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F5" t="n">
         <v>44.49822504924753</v>
@@ -4567,19 +4567,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.228696443452</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.228696443452</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.228696443452</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.837346743799</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.837346743799</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.50007669869</v>
+        <v>1708.823959503264</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1389.040378766978</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>554.589532101539</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924753</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1488.514569505544</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1213.662165678057</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>971.0982691238626</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>744.7555008136046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839.5348582317996</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C8" t="n">
-        <v>483.7341587163277</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>483.7341587163277</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>483.7341587163277</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="W8" t="n">
-        <v>1244.872128276909</v>
+        <v>2157.512696345942</v>
       </c>
       <c r="X8" t="n">
-        <v>1244.872128276909</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y8" t="n">
-        <v>839.5348582317996</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1322.50007669869</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C11" t="n">
-        <v>895.5993467119897</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D11" t="n">
         <v>895.5993467119897</v>
@@ -5044,25 +5044,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L11" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M11" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N11" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
         <v>2224.911252462377</v>
@@ -5083,10 +5083,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630124</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.34844099022</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K12" t="n">
-        <v>51.94486801115937</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L12" t="n">
-        <v>602.6104029955975</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M12" t="n">
-        <v>1153.275937980036</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N12" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O12" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P12" t="n">
         <v>1389.040378766978</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
@@ -5229,22 +5229,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.872639149549</v>
+        <v>2017.204515799479</v>
       </c>
       <c r="U13" t="n">
-        <v>2177.872639149549</v>
+        <v>2017.204515799479</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1735.493048407508</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1460.640644580021</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>1218.076748025826</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1805.062888170846</v>
+        <v>725.0717036290372</v>
       </c>
       <c r="C14" t="n">
-        <v>1378.162158184147</v>
+        <v>298.1709736423373</v>
       </c>
       <c r="D14" t="n">
-        <v>954.8695373691469</v>
+        <v>298.1709736423373</v>
       </c>
       <c r="E14" t="n">
-        <v>528.8925975170044</v>
+        <v>298.1709736423373</v>
       </c>
       <c r="F14" t="n">
-        <v>103.7684157064047</v>
+        <v>298.1709736423373</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>298.1709736423373</v>
       </c>
       <c r="H14" t="n">
         <v>44.49822504924753</v>
@@ -5278,22 +5278,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>1696.494830002562</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O14" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P14" t="n">
         <v>2224.911252462377</v>
@@ -5305,25 +5305,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.911252462377</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.911252462377</v>
+        <v>725.0717036290372</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M15" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
         <v>44.49822504924753</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
         <v>5115.135670291427</v>
@@ -5545,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3313.894682672831</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>3342.951415276884</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>3342.951415276884</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5758,19 +5758,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5788,10 +5788,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5828,19 +5828,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3158.801708427964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3100.930848725445</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5992,22 +5992,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2176.752350469914</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1933.413002695814</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6241,37 +6241,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2210.954372013976</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2210.954372013976</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2210.954372013976</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1929.242904622005</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.390500794518</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1411.826604240323</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1185.483835930065</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6481,10 +6481,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.82914530688</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6718,10 +6718,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6730,7 +6730,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4951.828802806542</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4951.828802806542</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U34" t="n">
-        <v>4951.828802806542</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7016,28 +7016,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>739.6560874287652</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3158.801708427964</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.039415751528</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D37" t="n">
-        <v>2934.722642878299</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878299</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2105.274776921254</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>2002.531292319261</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7414,22 +7414,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>533.9931985757493</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L41" t="n">
-        <v>1463.618246195026</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M41" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.509065974867</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.153331232334</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W43" t="n">
-        <v>1437.300927404847</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X43" t="n">
-        <v>1194.737030850652</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y43" t="n">
-        <v>1185.483835930065</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="44">
@@ -7648,25 +7648,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
         <v>5115.135670291427</v>
@@ -7724,19 +7724,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.7150043171358</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="C46" t="n">
-        <v>869.7150043171358</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D46" t="n">
-        <v>706.3982314439065</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E46" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>869.7150043171358</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>869.7150043171358</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,7 +7990,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>571.0335849150665</v>
+        <v>547.8252218830989</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716181</v>
@@ -7999,10 +7999,10 @@
         <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>96.03708962878051</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>260.6609864990204</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8294,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>550.5504466271776</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>110.4525178970659</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931265</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8692,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L11" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>260.5451336181234</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>591.9924139104035</v>
@@ -8938,13 +8938,13 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9008,16 +9008,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>454.9370402678085</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>517.6546514635598</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>51.74946878692288</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9406,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>995.9774475394116</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>742.2139937908412</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9640,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9649,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9959,10 +9959,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>427.4810510023246</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>227.4584616419597</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10664,19 +10664,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>659.3662058264945</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10688,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10834,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11062,10 +11062,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>105.5494758988752</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11080,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
@@ -11147,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>677.1461373703553</v>
+        <v>384.9242974632712</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11314,10 +11314,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>749.1541615704315</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>334.5944357385096</v>
       </c>
       <c r="X2" t="n">
-        <v>329.28546057063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22755,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>122.2356629785265</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>31.37599128644189</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>119.0405847870784</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22846,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>236.5838919079027</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>70.38903016651568</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>189.0467897542816</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>348.9253100933448</v>
       </c>
       <c r="Y11" t="n">
-        <v>331.1495128311534</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>81.84451217978983</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>341.6181830358603</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>43.7536736335467</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>104.3914540390038</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>63.52994056050434</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>97.38994188912578</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>6.759898196019833</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>68.10191868181104</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0981677402018</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>65.23940003763292</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>233.6730970436894</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.9186776557742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>66.28277819799436</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>125.5562434559265</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772791.8043139901</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772791.8043139901</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772791.8043139901</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772791.8043139901</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772791.8043139901</v>
+        <v>772791.8043139899</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772791.8043139899</v>
+        <v>772791.8043139901</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>127059.143630737</v>
       </c>
       <c r="G2" t="n">
-        <v>210761.4011765426</v>
+        <v>210761.4011765427</v>
       </c>
       <c r="H2" t="n">
         <v>210761.4011765427</v>
@@ -26346,16 +26346,16 @@
         <v>210761.4011765427</v>
       </c>
       <c r="M2" t="n">
-        <v>210761.4011765426</v>
+        <v>210761.4011765427</v>
       </c>
       <c r="N2" t="n">
         <v>210761.4011765427</v>
       </c>
       <c r="O2" t="n">
-        <v>210761.4011765426</v>
+        <v>210761.4011765427</v>
       </c>
       <c r="P2" t="n">
-        <v>210761.4011765426</v>
+        <v>210761.4011765427</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="C4" t="n">
         <v>458.4532502675966</v>
@@ -26432,7 +26432,7 @@
         <v>458.4532502675966</v>
       </c>
       <c r="G4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
@@ -26441,25 +26441,25 @@
         <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433673</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="P4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127250.2940716959</v>
+        <v>-127859.3397841855</v>
       </c>
       <c r="C6" t="n">
-        <v>59154.4393430413</v>
+        <v>58545.39363055165</v>
       </c>
       <c r="D6" t="n">
-        <v>59154.43934304135</v>
+        <v>58545.39363055167</v>
       </c>
       <c r="E6" t="n">
-        <v>92782.03934304131</v>
+        <v>92172.99363055165</v>
       </c>
       <c r="F6" t="n">
-        <v>92782.03934304131</v>
+        <v>92172.99363055163</v>
       </c>
       <c r="G6" t="n">
-        <v>-65830.51116199933</v>
+        <v>-65881.5418241835</v>
       </c>
       <c r="H6" t="n">
-        <v>132211.2787281696</v>
+        <v>132160.2480659853</v>
       </c>
       <c r="I6" t="n">
-        <v>132211.2787281696</v>
+        <v>132160.2480659853</v>
       </c>
       <c r="J6" t="n">
-        <v>-13322.39120664683</v>
+        <v>-13373.42186883109</v>
       </c>
       <c r="K6" t="n">
-        <v>132211.2787281696</v>
+        <v>132160.2480659853</v>
       </c>
       <c r="L6" t="n">
-        <v>132211.2787281697</v>
+        <v>132160.2480659854</v>
       </c>
       <c r="M6" t="n">
-        <v>132211.2787281695</v>
+        <v>132160.2480659853</v>
       </c>
       <c r="N6" t="n">
-        <v>132211.2787281696</v>
+        <v>132160.2480659853</v>
       </c>
       <c r="O6" t="n">
-        <v>-41672.5703655752</v>
+        <v>-41723.6010277594</v>
       </c>
       <c r="P6" t="n">
-        <v>132211.2787281696</v>
+        <v>132160.2480659853</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.7539620806205</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155939</v>
@@ -34719,10 +34719,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>75.42597529544717</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>238.1458997847909</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>73.06155854104179</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>158.2737632597931</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>556.2278131155941</v>
@@ -35658,13 +35658,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,17 +35728,17 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>432.5378064344752</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>349.6900184701286</v>
+      </c>
+      <c r="N15" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M15" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2233885641281</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>29.35023495358955</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>958.5461846399799</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>719.1172132785132</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36369,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36679,10 +36679,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>404.3842704899966</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>205.0592278086264</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>636.2694253141665</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37554,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>69.78487510406583</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37800,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>654.0493568580273</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38034,10 +38034,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>726.6390748562019</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
